--- a/example_data/toimiva.xlsx
+++ b/example_data/toimiva.xlsx
@@ -85,10 +85,10 @@
     <t xml:space="preserve">C1</t>
   </si>
   <si>
-    <t xml:space="preserve">A1 AND (D1 OR D2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toissijainen ehto</t>
+    <t xml:space="preserve">sipoo_itaan#A1 AND (aakkoslandia_1#D1 OR aakkoslandia_1#D2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toissijainen ehto. Huomaa, että koska A1, D1 ja D2 eivät ole sijainnissa “Yhdistelmä”, niiden sijainnit täytyy erikseen merkitä, ja tässä vielä ilman välilyöntejä ja ääkkösiä, jotta työkalu lukee ehdon oikein.</t>
   </si>
 </sst>
 </file>
@@ -214,7 +214,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
